--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -86597,7 +86597,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -86877,7 +86877,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86931,7 +86933,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86985,7 +86989,9 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1546">
       <c r="A1546" s="2" t="n">
@@ -87039,7 +87045,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -87093,7 +87101,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1547"/>
+  <dimension ref="A1:R1548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87105,6 +87105,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>1755.849975585938</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>1718</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>1775.949951171875</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>1775.949951171875</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>163751</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1548"/>
+  <dimension ref="A1:R1549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86645,7 +86645,7 @@
         <v>23</v>
       </c>
       <c r="O1539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1539" t="n">
         <v>0</v>
@@ -87157,7 +87157,63 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>1789.949951171875</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>1789.949951171875</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>1706</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>1729.349975585938</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>1729.349975585938</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>141730</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1549"/>
+  <dimension ref="A1:R1556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87213,7 +87213,387 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>1734</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>1734</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>1659.550048828125</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>1692.800048828125</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>1692.800048828125</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>115646</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>1698.849975585938</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>1692</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>1710.800048828125</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>1710.800048828125</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>95432</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>1867.949951171875</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>1713.099975585938</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>1823.449951171875</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>1823.449951171875</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>583486</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>1865.949951171875</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>1869.900024414062</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>1771.050048828125</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>1804.349975585938</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>1804.349975585938</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>290698</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>1820.5</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>1764.349975585938</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>1776.5</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>1776.5</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>125947</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>1778</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>1818.949951171875</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>1740.650024414062</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>1755.900024414062</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>1755.900024414062</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>126303</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>1793.900024414062</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>1726</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>1763.349975585938</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>1763.349975585938</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>143642</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="R170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="R193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="R279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -25838,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="R453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="R472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="R654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -43814,7 +43814,7 @@
         <v>1</v>
       </c>
       <c r="R774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="R857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -53390,7 +53390,7 @@
         <v>0</v>
       </c>
       <c r="R945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="R973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974">
@@ -58766,7 +58766,7 @@
         <v>1</v>
       </c>
       <c r="R1041" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -60222,7 +60222,7 @@
         <v>0</v>
       </c>
       <c r="R1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -63694,7 +63694,7 @@
         <v>2</v>
       </c>
       <c r="R1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -64870,7 +64870,7 @@
         <v>1</v>
       </c>
       <c r="R1150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192">
@@ -68846,7 +68846,7 @@
         <v>0</v>
       </c>
       <c r="R1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -69686,7 +69686,7 @@
         <v>2</v>
       </c>
       <c r="R1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237">
@@ -71142,7 +71142,7 @@
         <v>1</v>
       </c>
       <c r="R1262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -73214,7 +73214,7 @@
         <v>1</v>
       </c>
       <c r="R1299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -74110,7 +74110,7 @@
         <v>1</v>
       </c>
       <c r="R1315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316">
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="R1346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -76742,7 +76742,7 @@
         <v>0</v>
       </c>
       <c r="R1362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363">
@@ -78926,7 +78926,7 @@
         <v>2</v>
       </c>
       <c r="R1401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1402">
@@ -79094,7 +79094,7 @@
         <v>0</v>
       </c>
       <c r="R1404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
@@ -81390,7 +81390,7 @@
         <v>1</v>
       </c>
       <c r="R1445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446">
@@ -84358,7 +84358,7 @@
         <v>0</v>
       </c>
       <c r="R1498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1499">
@@ -85590,7 +85590,7 @@
         <v>0</v>
       </c>
       <c r="R1520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521">
@@ -87269,7 +87269,9 @@
       <c r="Q1550" t="n">
         <v>0</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87323,7 +87325,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87377,7 +87381,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87431,7 +87437,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87485,7 +87493,9 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1555">
       <c r="A1555" s="2" t="n">
@@ -87539,7 +87549,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87593,7 +87605,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1556"/>
+  <dimension ref="A1:R1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="R279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -25838,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="R453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="R472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="R654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -43814,7 +43814,7 @@
         <v>1</v>
       </c>
       <c r="R774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="R857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -53390,7 +53390,7 @@
         <v>0</v>
       </c>
       <c r="R945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="R973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -58766,7 +58766,7 @@
         <v>1</v>
       </c>
       <c r="R1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042">
@@ -60222,7 +60222,7 @@
         <v>0</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -63694,7 +63694,7 @@
         <v>2</v>
       </c>
       <c r="R1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -64870,7 +64870,7 @@
         <v>1</v>
       </c>
       <c r="R1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192">
@@ -68846,7 +68846,7 @@
         <v>0</v>
       </c>
       <c r="R1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222">
@@ -69686,7 +69686,7 @@
         <v>2</v>
       </c>
       <c r="R1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -71142,7 +71142,7 @@
         <v>1</v>
       </c>
       <c r="R1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -73214,7 +73214,7 @@
         <v>1</v>
       </c>
       <c r="R1299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -74110,7 +74110,7 @@
         <v>1</v>
       </c>
       <c r="R1315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316">
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="R1346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -76742,7 +76742,7 @@
         <v>0</v>
       </c>
       <c r="R1362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363">
@@ -78926,7 +78926,7 @@
         <v>2</v>
       </c>
       <c r="R1401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402">
@@ -79094,7 +79094,7 @@
         <v>0</v>
       </c>
       <c r="R1404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -81390,7 +81390,7 @@
         <v>1</v>
       </c>
       <c r="R1445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446">
@@ -84358,7 +84358,7 @@
         <v>0</v>
       </c>
       <c r="R1498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1499">
@@ -85590,7 +85590,7 @@
         <v>0</v>
       </c>
       <c r="R1520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521">
@@ -87608,6 +87608,276 @@
       <c r="R1556" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>1779.900024414062</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>1793.900024414062</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>1721.550048828125</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>1726.949951171875</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>1726.949951171875</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>163989</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>1731.449951171875</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>1710.050048828125</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>1731</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>1731</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>116567</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>1725.449951171875</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>1725.449951171875</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>69425</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>1732</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>1802</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>1728</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>1750.199951171875</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>1750.199951171875</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>218759</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>1756</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>1768.5</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>1720</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>1728.849975585938</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>1728.849975585938</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>149182</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1561"/>
+  <dimension ref="A1:R1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87429,7 +87429,7 @@
         <v>26</v>
       </c>
       <c r="O1553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1553" t="n">
         <v>0</v>
@@ -87661,7 +87661,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87715,7 +87717,9 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1559">
       <c r="A1559" s="2" t="n">
@@ -87769,7 +87773,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87823,7 +87829,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87877,7 +87885,495 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>1738.949951171875</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>1671</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>1688.599975585938</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>1688.599975585938</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>177009</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>1737</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>1798</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>1685</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>1700.599975585938</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>1700.599975585938</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>396196</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>1764.849975585938</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>1795.599975585938</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>1677.5</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>1699.25</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>1699.25</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>479020</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>1708</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>1715.949951171875</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>1664.949951171875</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>1694.849975585938</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>1694.849975585938</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>326755</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>1727</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>1688.5</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>1688.5</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>228844</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>1689.949951171875</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>1740</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>1686.699951171875</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>1717.150024414062</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>1717.150024414062</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>132066</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>1718</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>1879.900024414062</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>1780.449951171875</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>1780.449951171875</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>1310493</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>1788.5</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>1800.650024414062</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>1730.099975585938</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>1741.300048828125</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>1741.300048828125</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>230399</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>1741.300048828125</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>1680.5</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>1691.849975585938</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>1691.849975585938</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>158679</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1570"/>
+  <dimension ref="A1:R1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87941,7 +87941,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87995,7 +87997,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -88049,7 +88053,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -88103,7 +88109,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -88157,7 +88165,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88211,7 +88221,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -88257,7 +88269,7 @@
         <v>29</v>
       </c>
       <c r="O1568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1568" t="n">
         <v>0</v>
@@ -88265,7 +88277,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88319,7 +88333,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88373,7 +88389,549 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>1711.199951171875</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>1757.199951171875</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>1701.5</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>1738.800048828125</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>1738.800048828125</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>239426</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>1749.800048828125</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>1760.550048828125</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>1650.650024414062</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>1650.650024414062</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>405675</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>1683.5</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>1626.800048828125</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>1641.300048828125</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>1641.300048828125</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>195273</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>1635</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>1729.75</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>1620.050048828125</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>1704.099975585938</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>1704.099975585938</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>451639</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>1713</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>1716.900024414062</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>1667.5</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>1669.5</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>1669.5</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>139930</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>1711.550048828125</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>1659.800048828125</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>1659.800048828125</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>154787</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>1660</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>1687.550048828125</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>1625.25</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>1640.75</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>1640.75</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>157039</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>1646</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>1659.900024414062</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>1615.099975585938</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>1619.199951171875</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>1619.199951171875</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>121131</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>1635.25</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>1573</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>1581</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>1581</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>160262</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>1555.5</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>1611.75</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>1549.400024414062</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>1594.599975585938</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>1594.599975585938</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>101896</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1580"/>
+  <dimension ref="A1:R1585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88445,7 +88445,9 @@
       <c r="Q1571" t="n">
         <v>0</v>
       </c>
-      <c r="R1571" t="inlineStr"/>
+      <c r="R1571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1572">
       <c r="A1572" s="2" t="n">
@@ -88499,7 +88501,9 @@
       <c r="Q1572" t="n">
         <v>0</v>
       </c>
-      <c r="R1572" t="inlineStr"/>
+      <c r="R1572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1573">
       <c r="A1573" s="2" t="n">
@@ -88553,7 +88557,9 @@
       <c r="Q1573" t="n">
         <v>0</v>
       </c>
-      <c r="R1573" t="inlineStr"/>
+      <c r="R1573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1574">
       <c r="A1574" s="2" t="n">
@@ -88607,7 +88613,9 @@
       <c r="Q1574" t="n">
         <v>0</v>
       </c>
-      <c r="R1574" t="inlineStr"/>
+      <c r="R1574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1575">
       <c r="A1575" s="2" t="n">
@@ -88661,7 +88669,9 @@
       <c r="Q1575" t="n">
         <v>0</v>
       </c>
-      <c r="R1575" t="inlineStr"/>
+      <c r="R1575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1576">
       <c r="A1576" s="2" t="n">
@@ -88715,7 +88725,9 @@
       <c r="Q1576" t="n">
         <v>0</v>
       </c>
-      <c r="R1576" t="inlineStr"/>
+      <c r="R1576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1577">
       <c r="A1577" s="2" t="n">
@@ -88769,7 +88781,9 @@
       <c r="Q1577" t="n">
         <v>0</v>
       </c>
-      <c r="R1577" t="inlineStr"/>
+      <c r="R1577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1578">
       <c r="A1578" s="2" t="n">
@@ -88823,7 +88837,9 @@
       <c r="Q1578" t="n">
         <v>0</v>
       </c>
-      <c r="R1578" t="inlineStr"/>
+      <c r="R1578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1579">
       <c r="A1579" s="2" t="n">
@@ -88877,7 +88893,9 @@
       <c r="Q1579" t="n">
         <v>0</v>
       </c>
-      <c r="R1579" t="inlineStr"/>
+      <c r="R1579" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1580">
       <c r="A1580" s="2" t="n">
@@ -88931,7 +88949,279 @@
       <c r="Q1580" t="n">
         <v>0</v>
       </c>
-      <c r="R1580" t="inlineStr"/>
+      <c r="R1580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>1587.849975585938</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>1504.099975585938</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>1544.900024414062</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>1544.900024414062</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>356305</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>1457.050048828125</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>1469.75</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>1469.75</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>389356</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>1489.349975585938</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>1580</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>1445.599975585938</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>1552.949951171875</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>1552.949951171875</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>334869</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>1549.449951171875</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>1637.099975585938</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>1533.300048828125</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>1624.650024414062</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>1624.650024414062</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>278907</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>1639.949951171875</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>1606.25</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>1613.150024414062</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>1613.150024414062</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>118109</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1585" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1585"/>
+  <dimension ref="A1:R1589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89005,7 +89005,9 @@
       <c r="Q1581" t="n">
         <v>0</v>
       </c>
-      <c r="R1581" t="inlineStr"/>
+      <c r="R1581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1582">
       <c r="A1582" s="2" t="n">
@@ -89059,7 +89061,9 @@
       <c r="Q1582" t="n">
         <v>0</v>
       </c>
-      <c r="R1582" t="inlineStr"/>
+      <c r="R1582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1583">
       <c r="A1583" s="2" t="n">
@@ -89113,7 +89117,9 @@
       <c r="Q1583" t="n">
         <v>0</v>
       </c>
-      <c r="R1583" t="inlineStr"/>
+      <c r="R1583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1584">
       <c r="A1584" s="2" t="n">
@@ -89167,7 +89173,9 @@
       <c r="Q1584" t="n">
         <v>0</v>
       </c>
-      <c r="R1584" t="inlineStr"/>
+      <c r="R1584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1585">
       <c r="A1585" s="2" t="n">
@@ -89221,7 +89229,225 @@
       <c r="Q1585" t="n">
         <v>0</v>
       </c>
-      <c r="R1585" t="inlineStr"/>
+      <c r="R1585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>1609.900024414062</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>1588.050048828125</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>1609.949951171875</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>1608.413940429688</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>121558</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>1614.449951171875</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>1631.949951171875</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>1565</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>1572.199951171875</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>1570.699951171875</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>73789</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1587" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>1575.150024414062</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>1580.199951171875</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>1506.949951171875</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>1521.25</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>1521.25</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>135790</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>1510.800048828125</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>1536.900024414062</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>1536.900024414062</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>83945</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1589" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1589"/>
+  <dimension ref="A1:R1594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="R170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="R193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="R279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -25838,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="R453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="R472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="R654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -43814,7 +43814,7 @@
         <v>1</v>
       </c>
       <c r="R774" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825">
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="R857" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858">
@@ -53390,7 +53390,7 @@
         <v>0</v>
       </c>
       <c r="R945" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946">
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="R973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974">
@@ -58766,7 +58766,7 @@
         <v>1</v>
       </c>
       <c r="R1041" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -60222,7 +60222,7 @@
         <v>0</v>
       </c>
       <c r="R1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068">
@@ -63694,7 +63694,7 @@
         <v>2</v>
       </c>
       <c r="R1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -64870,7 +64870,7 @@
         <v>1</v>
       </c>
       <c r="R1150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192">
@@ -68846,7 +68846,7 @@
         <v>0</v>
       </c>
       <c r="R1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -69686,7 +69686,7 @@
         <v>2</v>
       </c>
       <c r="R1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237">
@@ -71142,7 +71142,7 @@
         <v>1</v>
       </c>
       <c r="R1262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -73214,7 +73214,7 @@
         <v>1</v>
       </c>
       <c r="R1299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -74110,7 +74110,7 @@
         <v>1</v>
       </c>
       <c r="R1315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316">
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="R1346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -76742,7 +76742,7 @@
         <v>0</v>
       </c>
       <c r="R1362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1363">
@@ -78926,7 +78926,7 @@
         <v>2</v>
       </c>
       <c r="R1401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1402">
@@ -79094,7 +79094,7 @@
         <v>0</v>
       </c>
       <c r="R1404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
@@ -81390,7 +81390,7 @@
         <v>1</v>
       </c>
       <c r="R1445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1446">
@@ -84358,7 +84358,7 @@
         <v>0</v>
       </c>
       <c r="R1498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1499">
@@ -85590,7 +85590,7 @@
         <v>0</v>
       </c>
       <c r="R1520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521">
@@ -88894,7 +88894,7 @@
         <v>0</v>
       </c>
       <c r="R1579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -89109,7 +89109,7 @@
         <v>32</v>
       </c>
       <c r="O1583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1583" t="n">
         <v>0</v>
@@ -89285,7 +89285,9 @@
       <c r="Q1586" t="n">
         <v>0</v>
       </c>
-      <c r="R1586" t="inlineStr"/>
+      <c r="R1586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1587">
       <c r="A1587" s="2" t="n">
@@ -89339,7 +89341,9 @@
       <c r="Q1587" t="n">
         <v>0</v>
       </c>
-      <c r="R1587" t="inlineStr"/>
+      <c r="R1587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1588">
       <c r="A1588" s="2" t="n">
@@ -89393,7 +89397,9 @@
       <c r="Q1588" t="n">
         <v>0</v>
       </c>
-      <c r="R1588" t="inlineStr"/>
+      <c r="R1588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1589">
       <c r="A1589" s="2" t="n">
@@ -89447,7 +89453,279 @@
       <c r="Q1589" t="n">
         <v>0</v>
       </c>
-      <c r="R1589" t="inlineStr"/>
+      <c r="R1589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>1590</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>1543.150024414062</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>1582.599975585938</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>1582.599975585938</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>103375</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>1665.199951171875</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>1568</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>1582.699951171875</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>1582.699951171875</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>442648</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>1615</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>1647.849975585938</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>1604.050048828125</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>1621.5</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>1621.5</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>471119</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>1628</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>1636</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>1591</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>1596.650024414062</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>1596.650024414062</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>205969</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>1605.699951171875</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>1609.5</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>1582.699951171875</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>1588.949951171875</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>1588.949951171875</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>64243</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1594" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1594"/>
+  <dimension ref="A1:R1599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="R170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="R190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="R193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -14302,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="R247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="R279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="R298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -25838,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="R453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -26902,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="R472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -37094,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="R654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
@@ -43814,7 +43814,7 @@
         <v>1</v>
       </c>
       <c r="R774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -46614,7 +46614,7 @@
         <v>1</v>
       </c>
       <c r="R824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -48462,7 +48462,7 @@
         <v>1</v>
       </c>
       <c r="R857" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -53390,7 +53390,7 @@
         <v>0</v>
       </c>
       <c r="R945" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946">
@@ -54958,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="R973" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="974">
@@ -58766,7 +58766,7 @@
         <v>1</v>
       </c>
       <c r="R1041" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042">
@@ -60222,7 +60222,7 @@
         <v>0</v>
       </c>
       <c r="R1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -63694,7 +63694,7 @@
         <v>2</v>
       </c>
       <c r="R1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130">
@@ -64870,7 +64870,7 @@
         <v>1</v>
       </c>
       <c r="R1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151">
@@ -67166,7 +67166,7 @@
         <v>2</v>
       </c>
       <c r="R1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192">
@@ -68846,7 +68846,7 @@
         <v>0</v>
       </c>
       <c r="R1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222">
@@ -69686,7 +69686,7 @@
         <v>2</v>
       </c>
       <c r="R1236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
@@ -71142,7 +71142,7 @@
         <v>1</v>
       </c>
       <c r="R1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -73214,7 +73214,7 @@
         <v>1</v>
       </c>
       <c r="R1299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300">
@@ -74110,7 +74110,7 @@
         <v>1</v>
       </c>
       <c r="R1315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316">
@@ -75846,7 +75846,7 @@
         <v>0</v>
       </c>
       <c r="R1346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1347">
@@ -76742,7 +76742,7 @@
         <v>0</v>
       </c>
       <c r="R1362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363">
@@ -78926,7 +78926,7 @@
         <v>2</v>
       </c>
       <c r="R1401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402">
@@ -79094,7 +79094,7 @@
         <v>0</v>
       </c>
       <c r="R1404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1405">
@@ -81390,7 +81390,7 @@
         <v>1</v>
       </c>
       <c r="R1445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1446">
@@ -84358,7 +84358,7 @@
         <v>0</v>
       </c>
       <c r="R1498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1499">
@@ -85590,7 +85590,7 @@
         <v>0</v>
       </c>
       <c r="R1520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521">
@@ -88894,7 +88894,7 @@
         <v>0</v>
       </c>
       <c r="R1579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1580">
@@ -89509,7 +89509,9 @@
       <c r="Q1590" t="n">
         <v>0</v>
       </c>
-      <c r="R1590" t="inlineStr"/>
+      <c r="R1590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1591">
       <c r="A1591" s="2" t="n">
@@ -89563,7 +89565,9 @@
       <c r="Q1591" t="n">
         <v>0</v>
       </c>
-      <c r="R1591" t="inlineStr"/>
+      <c r="R1591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1592">
       <c r="A1592" s="2" t="n">
@@ -89617,7 +89621,9 @@
       <c r="Q1592" t="n">
         <v>0</v>
       </c>
-      <c r="R1592" t="inlineStr"/>
+      <c r="R1592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1593">
       <c r="A1593" s="2" t="n">
@@ -89671,7 +89677,9 @@
       <c r="Q1593" t="n">
         <v>0</v>
       </c>
-      <c r="R1593" t="inlineStr"/>
+      <c r="R1593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1594">
       <c r="A1594" s="2" t="n">
@@ -89725,7 +89733,279 @@
       <c r="Q1594" t="n">
         <v>0</v>
       </c>
-      <c r="R1594" t="inlineStr"/>
+      <c r="R1594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>1596.75</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>1567.550048828125</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>1575.199951171875</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>1575.199951171875</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>76837</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>1575</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>1580.949951171875</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>1535.150024414062</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>1539.949951171875</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>1539.949951171875</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>209292</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>1539.949951171875</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>1552.099975585938</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>1522.5</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>1522.5</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>163180</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>1524.400024414062</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>1549.800048828125</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>1518</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>1527.25</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>1527.25</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>91604</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>1534.449951171875</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>1511</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>1562.349975585938</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>1562.349975585938</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>136462</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1599" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1599"/>
+  <dimension ref="A1:R1604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89557,7 +89557,7 @@
         <v>34</v>
       </c>
       <c r="O1591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1591" t="n">
         <v>0</v>
@@ -89789,7 +89789,9 @@
       <c r="Q1595" t="n">
         <v>0</v>
       </c>
-      <c r="R1595" t="inlineStr"/>
+      <c r="R1595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1596">
       <c r="A1596" s="2" t="n">
@@ -89843,7 +89845,9 @@
       <c r="Q1596" t="n">
         <v>0</v>
       </c>
-      <c r="R1596" t="inlineStr"/>
+      <c r="R1596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1597">
       <c r="A1597" s="2" t="n">
@@ -89897,7 +89901,9 @@
       <c r="Q1597" t="n">
         <v>0</v>
       </c>
-      <c r="R1597" t="inlineStr"/>
+      <c r="R1597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1598">
       <c r="A1598" s="2" t="n">
@@ -89951,7 +89957,9 @@
       <c r="Q1598" t="n">
         <v>0</v>
       </c>
-      <c r="R1598" t="inlineStr"/>
+      <c r="R1598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1599">
       <c r="A1599" s="2" t="n">
@@ -90005,7 +90013,279 @@
       <c r="Q1599" t="n">
         <v>0</v>
       </c>
-      <c r="R1599" t="inlineStr"/>
+      <c r="R1599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>1563</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>1572.599975585938</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>1536.800048828125</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>1536.800048828125</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>80496</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>1539.949951171875</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>1552.949951171875</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>1530</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>1534.650024414062</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>1534.650024414062</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>59021</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>1534.949951171875</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>1557.599975585938</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>1526.199951171875</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>1526.199951171875</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>89406</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1602" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>1549.900024414062</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>1549.900024414062</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>1518.900024414062</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>1522.650024414062</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>1522.650024414062</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>58465</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>1528.900024414062</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>1537.949951171875</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>1489.199951171875</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>1491.849975585938</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>1491.849975585938</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>97539</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1604" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1604"/>
+  <dimension ref="A1:R1609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90069,7 +90069,9 @@
       <c r="Q1600" t="n">
         <v>0</v>
       </c>
-      <c r="R1600" t="inlineStr"/>
+      <c r="R1600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1601">
       <c r="A1601" s="2" t="n">
@@ -90123,7 +90125,9 @@
       <c r="Q1601" t="n">
         <v>0</v>
       </c>
-      <c r="R1601" t="inlineStr"/>
+      <c r="R1601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1602">
       <c r="A1602" s="2" t="n">
@@ -90177,7 +90181,9 @@
       <c r="Q1602" t="n">
         <v>0</v>
       </c>
-      <c r="R1602" t="inlineStr"/>
+      <c r="R1602" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1603">
       <c r="A1603" s="2" t="n">
@@ -90231,7 +90237,9 @@
       <c r="Q1603" t="n">
         <v>0</v>
       </c>
-      <c r="R1603" t="inlineStr"/>
+      <c r="R1603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1604">
       <c r="A1604" s="2" t="n">
@@ -90285,7 +90293,279 @@
       <c r="Q1604" t="n">
         <v>0</v>
       </c>
-      <c r="R1604" t="inlineStr"/>
+      <c r="R1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>1476.150024414062</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>1485.050048828125</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>1440</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>1460.800048828125</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>1460.800048828125</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>191493</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>1582.650024414062</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>1501.300048828125</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>1558.449951171875</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>1558.449951171875</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>428759</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>1575.400024414062</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>1505</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>1507.900024414062</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>1507.900024414062</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>122980</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>1543.949951171875</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>1544</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>1484.949951171875</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>1501.699951171875</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>1501.699951171875</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>206744</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>1574</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>1598</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>1537</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>1564.75</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>1564.75</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>825701</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1609" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1609"/>
+  <dimension ref="A1:R1614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90349,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90403,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90457,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90511,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90565,7 +90573,279 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>1643.75</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>1596</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>1607.150024414062</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>1607.150024414062</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>413075</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>1620</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>1570.699951171875</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>1589.199951171875</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>1589.199951171875</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>132056</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>1602.25</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>1603.349975585938</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>1561</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>1570.599975585938</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>1570.599975585938</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>125623</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>1573.900024414062</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>1586.650024414062</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>1506</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>1525.199951171875</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>1525.199951171875</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>210236</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>1541.25</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>1571.5</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>1527.25</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>1548.75</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>1548.75</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>97858</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1614"/>
+  <dimension ref="A1:R1619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90341,7 +90341,7 @@
         <v>37</v>
       </c>
       <c r="O1605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1605" t="n">
         <v>0</v>
@@ -90629,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90683,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90737,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90791,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90845,7 +90853,279 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>1555</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>1559</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>1521.199951171875</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>1529.699951171875</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>1529.699951171875</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>109315</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>1533</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>1557.949951171875</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>1529.699951171875</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>1546.5</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>1546.5</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>84212</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>1554</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>1583.75</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>1546.550048828125</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>1558.150024414062</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>1558.150024414062</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>208746</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>1560.949951171875</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>1543.400024414062</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>1543.400024414062</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>50125</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>1543.449951171875</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>1573.349975585938</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>1532.849975585938</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>1544.800048828125</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>1544.800048828125</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>74982</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1619"/>
+  <dimension ref="A1:R1623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90621,7 +90621,7 @@
         <v>38</v>
       </c>
       <c r="O1610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1610" t="n">
         <v>0</v>
@@ -90909,7 +90909,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90963,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1617">
       <c r="A1617" s="2" t="n">
@@ -91017,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91071,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91125,7 +91133,225 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>1536.150024414062</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>1548.650024414062</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>1548.650024414062</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>57682</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>1564</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>1552.650024414062</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>1552.650024414062</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>179825</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>1525</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>1549.300048828125</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>1470.050048828125</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>1489.099975585938</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>1489.099975585938</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>160146</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>1497.900024414062</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>1513.150024414062</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>1465.599975585938</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>1493.599975585938</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>1493.599975585938</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>150764</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1623"/>
+  <dimension ref="A1:R1628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91189,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91243,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91297,7 +91301,9 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1623">
       <c r="A1623" s="2" t="n">
@@ -91351,7 +91357,279 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>1417.300048828125</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>1455.550048828125</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>1455.550048828125</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>218060</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>1455.550048828125</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>1490</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>1424.949951171875</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>1480.300048828125</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>1480.300048828125</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>74955</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>1499.199951171875</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>1505</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>1485.050048828125</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>1500.550048828125</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>1500.550048828125</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>53434</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>1512</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>1529.400024414062</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>1482.75</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>57659</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>1489.949951171875</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>1503.900024414062</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>1468.400024414062</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>1484.800048828125</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>1484.800048828125</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>37911</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1628"/>
+  <dimension ref="A1:R1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91413,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91467,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91521,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91575,7 +91581,9 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1628">
       <c r="A1628" s="2" t="n">
@@ -91629,7 +91637,279 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>1484.800048828125</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>1493.25</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>1465.849975585938</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>1473.849975585938</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>1473.849975585938</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>45392</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>1485.75</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>1488</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>1458.199951171875</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>1477.900024414062</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>1477.900024414062</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>56170</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>1480.400024414062</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>1487.650024414062</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>1464.449951171875</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>57516</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>1476</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>1480.849975585938</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>1463.5</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>1467.099975585938</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>1467.099975585938</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>37086</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>1468</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>1425</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>1444.699951171875</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>1444.699951171875</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>78752</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1633"/>
+  <dimension ref="A1:R1638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91693,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91747,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91801,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91855,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91909,7 +91917,279 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>1465.349975585938</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>1469.900024414062</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>1390.550048828125</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>1403.699951171875</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>1403.699951171875</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>82659</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>1400.099975585938</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>1403.699951171875</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>1330</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>1334.5</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>1334.5</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>133452</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>1339</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>1378.5</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>1321</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>1348.800048828125</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>1348.800048828125</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>152316</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>1353.900024414062</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>1333.400024414062</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>1333.400024414062</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>52894</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>1333.400024414062</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>1343.25</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>1263.800048828125</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>1304.449951171875</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>1304.449951171875</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>139017</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1638"/>
+  <dimension ref="A1:R1643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91973,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>0</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92027,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92081,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92135,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92189,7 +92197,279 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>1312.949951171875</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>1338.75</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>1289</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>1325.400024414062</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>1325.400024414062</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>117322</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>1325.400024414062</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>1343.949951171875</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>1299.300048828125</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>1335.599975585938</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>1335.599975585938</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>74915</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>1344</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>1361.849975585938</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>1326.800048828125</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>1329.800048828125</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>1329.800048828125</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>88894</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>1379.949951171875</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>1409.349975585938</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>1344</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>1358.050048828125</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>1358.050048828125</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>174534</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>1379.949951171875</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>1395.599975585938</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>1360.349975585938</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>1387</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>1387</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>12281</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1643"/>
+  <dimension ref="A1:R1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92189,7 +92189,7 @@
         <v>43</v>
       </c>
       <c r="O1638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1638" t="n">
         <v>0</v>
@@ -92253,7 +92253,9 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1640">
       <c r="A1640" s="2" t="n">
@@ -92307,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92361,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92415,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92469,7 +92477,279 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>1415.599975585938</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>1415.599975585938</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>1316.050048828125</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>1330.199951171875</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>1330.199951171875</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>155130</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>1351.5</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>1306.650024414062</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>1311.5</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>1311.5</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>163957</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>1332.25</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>1372.650024414062</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>1327.099975585938</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>1366.650024414062</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>1366.650024414062</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>112238</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>1369</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>1376.25</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>1316</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>1322.800048828125</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>1322.800048828125</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>90738</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>1323</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>1328.599975585938</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>1266.599975585938</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>1270.550048828125</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>1270.550048828125</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>151222</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1648"/>
+  <dimension ref="A1:R1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92533,7 +92533,9 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1645">
       <c r="A1645" s="2" t="n">
@@ -92587,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92641,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92695,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92749,7 +92757,225 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>1271.699951171875</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>1295</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>1245.150024414062</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>1282.5</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>123222</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>1280</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>1180.050048828125</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>1221.25</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>1221.25</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>448917</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>1218.800048828125</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>1218.800048828125</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>1177.699951171875</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>1197.800048828125</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>1197.800048828125</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>135550</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>1195.050048828125</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>1233.800048828125</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>1191.099975585938</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>1226.25</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>1226.25</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>134665</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1652"/>
+  <dimension ref="A1:R1656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92813,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92867,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92921,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92975,7 +92981,225 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>1226.25</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>1234.949951171875</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>1191.099975585938</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>1202.449951171875</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>1202.449951171875</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>71001</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>1276.150024414062</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>1202.800048828125</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>1270.400024414062</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>1270.400024414062</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>141865</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>1271</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>1290</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>1279.599975585938</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>1279.599975585938</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>110950</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>1279.599975585938</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>1299.099975585938</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>1265.099975585938</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>1279.449951171875</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>1279.449951171875</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>49573</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1656"/>
+  <dimension ref="A1:R1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92917,7 +92917,7 @@
         <v>46</v>
       </c>
       <c r="O1651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1651" t="n">
         <v>0</v>
@@ -93037,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93091,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93145,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93199,7 +93205,279 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>1350.949951171875</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>1362.900024414062</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>1337.199951171875</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>1337.199951171875</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>196983</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>1335</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>1342.349975585938</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>1318</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>1330.349975585938</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>1330.349975585938</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>46363</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>1330.349975585938</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>1337.300048828125</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>1319.5</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>1326.300048828125</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>1326.300048828125</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>39844</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>1328.400024414062</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>1347.099975585938</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>1318.849975585938</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>1338.099975585938</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>1338.099975585938</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>43363</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>1343.349975585938</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>1349</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>1322</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>1331.150024414062</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>1331.150024414062</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>38964</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1661"/>
+  <dimension ref="A1:R1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93261,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93315,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93369,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93423,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93477,7 +93485,279 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>1359</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>1434</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>1333.050048828125</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>1399.349975585938</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>1399.349975585938</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>133760</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>1399.349975585938</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>1436.949951171875</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>1394.050048828125</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>1427</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>1427</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>120526</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>1429</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>1488</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>1424.900024414062</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>1470.699951171875</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>1470.699951171875</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>170574</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>1485.349975585938</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>1485.449951171875</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>1438.650024414062</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>1452.800048828125</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>1452.800048828125</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>70588</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>1455</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>1471.150024414062</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>1445.050048828125</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>1451.699951171875</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>1451.699951171875</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>54169</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1666"/>
+  <dimension ref="A1:R1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93541,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93595,7 +93597,9 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1664">
       <c r="A1664" s="2" t="n">
@@ -93649,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93703,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>0</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93757,7 +93765,529 @@
       <c r="Q1666" t="n">
         <v>0</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>1451.75</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>1493.800048828125</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>1451.699951171875</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>1461</v>
+      </c>
+      <c r="F1667" t="inlineStr"/>
+      <c r="G1667" t="n">
+        <v>72519</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>1470.099975585938</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>1502.650024414062</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>1437.599975585938</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>1454.150024414062</v>
+      </c>
+      <c r="F1668" t="inlineStr"/>
+      <c r="G1668" t="n">
+        <v>140396</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>1500</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>1503.300048828125</v>
+      </c>
+      <c r="F1669" t="inlineStr"/>
+      <c r="G1669" t="n">
+        <v>1034141</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>1509.150024414062</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>1517.699951171875</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>1472.050048828125</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>1486.599975585938</v>
+      </c>
+      <c r="F1670" t="inlineStr"/>
+      <c r="G1670" t="n">
+        <v>105582</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>1488</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>1496.849975585938</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>1440.75</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>1468.800048828125</v>
+      </c>
+      <c r="F1671" t="inlineStr"/>
+      <c r="G1671" t="n">
+        <v>88120</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>1492</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>1536.949951171875</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>1485.150024414062</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>1518.699951171875</v>
+      </c>
+      <c r="F1672" t="inlineStr"/>
+      <c r="G1672" t="n">
+        <v>260105</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>1532</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>1532</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>1508.150024414062</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>1512.5</v>
+      </c>
+      <c r="F1673" t="inlineStr"/>
+      <c r="G1673" t="n">
+        <v>77862</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>1512.800048828125</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>1520.5</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>1491.599975585938</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>1507.099975585938</v>
+      </c>
+      <c r="F1674" t="inlineStr"/>
+      <c r="G1674" t="n">
+        <v>94145</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>1471</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>1512.400024414062</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>1445.5</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>1493.400024414062</v>
+      </c>
+      <c r="F1675" t="inlineStr"/>
+      <c r="G1675" t="n">
+        <v>86215</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>1496.349975585938</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>1503.949951171875</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>1426</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>1432.800048828125</v>
+      </c>
+      <c r="F1676" t="inlineStr"/>
+      <c r="G1676" t="n">
+        <v>65961</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1676"/>
+  <dimension ref="A1:R1680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93819,7 +93819,9 @@
       <c r="Q1667" t="n">
         <v>0</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93871,7 +93873,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93915,7 +93919,7 @@
         <v>50</v>
       </c>
       <c r="O1669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1669" t="n">
         <v>0</v>
@@ -93923,7 +93927,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93975,7 +93981,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94027,7 +94035,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94079,7 +94089,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94131,7 +94143,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94183,7 +94197,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94235,7 +94251,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94287,7 +94305,217 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>1472.949951171875</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>1459.550048828125</v>
+      </c>
+      <c r="F1677" t="inlineStr"/>
+      <c r="G1677" t="n">
+        <v>110746</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>1486.650024414062</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>1543.800048828125</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>1475</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>1502.449951171875</v>
+      </c>
+      <c r="F1678" t="inlineStr"/>
+      <c r="G1678" t="n">
+        <v>423255</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>1498.449951171875</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>1508.949951171875</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>1466</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>1488.300048828125</v>
+      </c>
+      <c r="F1679" t="inlineStr"/>
+      <c r="G1679" t="n">
+        <v>98084</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>1492.800048828125</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>1524.5</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>1481.5</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>1495.75</v>
+      </c>
+      <c r="F1680" t="inlineStr"/>
+      <c r="G1680" t="n">
+        <v>114771</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1680"/>
+  <dimension ref="A1:R1685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94359,7 +94359,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94411,7 +94413,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94463,7 +94467,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94515,7 +94521,269 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>1495.75</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>1536</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>1484.400024414062</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>1498</v>
+      </c>
+      <c r="F1681" t="inlineStr"/>
+      <c r="G1681" t="n">
+        <v>169271</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>1498</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>1525.300048828125</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>1490</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>1517.25</v>
+      </c>
+      <c r="F1682" t="inlineStr"/>
+      <c r="G1682" t="n">
+        <v>60579</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>1524.650024414062</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>1501.25</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>1505.449951171875</v>
+      </c>
+      <c r="F1683" t="inlineStr"/>
+      <c r="G1683" t="n">
+        <v>56982</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>1506.5</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>1559</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>1500.150024414062</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>1527</v>
+      </c>
+      <c r="F1684" t="inlineStr"/>
+      <c r="G1684" t="n">
+        <v>116288</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>1532</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>1502.75</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>1509.849975585938</v>
+      </c>
+      <c r="F1685" t="inlineStr"/>
+      <c r="G1685" t="n">
+        <v>43200</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1685"/>
+  <dimension ref="A1:R1690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94575,7 +94575,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94627,7 +94629,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94679,7 +94683,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94731,7 +94737,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94783,7 +94791,269 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>1526.099975585938</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>1540.400024414062</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>1405</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>1415.050048828125</v>
+      </c>
+      <c r="F1686" t="inlineStr"/>
+      <c r="G1686" t="n">
+        <v>142832</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>1437.949951171875</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>1479.150024414062</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>1420.050048828125</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>1466.5</v>
+      </c>
+      <c r="F1687" t="inlineStr"/>
+      <c r="G1687" t="n">
+        <v>95625</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>1451.849975585938</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>1472.949951171875</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>1433.849975585938</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>1450.050048828125</v>
+      </c>
+      <c r="F1688" t="inlineStr"/>
+      <c r="G1688" t="n">
+        <v>53498</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>1436.900024414062</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>1453.050048828125</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>1420</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>1426.099975585938</v>
+      </c>
+      <c r="F1689" t="inlineStr"/>
+      <c r="G1689" t="n">
+        <v>37329</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>1417</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>1380</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>1390.599975585938</v>
+      </c>
+      <c r="F1690" t="inlineStr"/>
+      <c r="G1690" t="n">
+        <v>63958</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1690"/>
+  <dimension ref="A1:R1695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94729,7 +94729,7 @@
         <v>1</v>
       </c>
       <c r="O1684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1684" t="n">
         <v>0</v>
@@ -94845,7 +94845,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94897,7 +94899,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94949,7 +94953,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95001,7 +95007,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95053,7 +95061,269 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>1374.849975585938</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>1388.949951171875</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>1309</v>
+      </c>
+      <c r="F1691" t="inlineStr"/>
+      <c r="G1691" t="n">
+        <v>89142</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>1307.099975585938</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>1340.349975585938</v>
+      </c>
+      <c r="F1692" t="inlineStr"/>
+      <c r="G1692" t="n">
+        <v>42034</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>1360.449951171875</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>1372.849975585938</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>1346.650024414062</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>1353.150024414062</v>
+      </c>
+      <c r="F1693" t="inlineStr"/>
+      <c r="G1693" t="n">
+        <v>31522</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>1342</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>1389.599975585938</v>
+      </c>
+      <c r="F1694" t="inlineStr"/>
+      <c r="G1694" t="n">
+        <v>38359</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>1387.400024414062</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>1371.050048828125</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>1394.099975585938</v>
+      </c>
+      <c r="F1695" t="inlineStr"/>
+      <c r="G1695" t="n">
+        <v>30990</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1695"/>
+  <dimension ref="A1:R1700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95115,7 +95115,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95167,7 +95169,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95219,7 +95223,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95271,7 +95277,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95323,7 +95331,269 @@
       <c r="Q1695" t="n">
         <v>2</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>1394.099975585938</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>1405.099975585938</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>1370</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>1374.050048828125</v>
+      </c>
+      <c r="F1696" t="inlineStr"/>
+      <c r="G1696" t="n">
+        <v>31014</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>1374.099975585938</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>1389.75</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>1332.25</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>1342.150024414062</v>
+      </c>
+      <c r="F1697" t="inlineStr"/>
+      <c r="G1697" t="n">
+        <v>31446</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>1348.800048828125</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>1348.800048828125</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>1284.849975585938</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>1290.849975585938</v>
+      </c>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="n">
+        <v>56185</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>1298.599975585938</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>1304.949951171875</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>1275</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>1283.25</v>
+      </c>
+      <c r="F1699" t="inlineStr"/>
+      <c r="G1699" t="n">
+        <v>55273</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>1300.050048828125</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>1304.650024414062</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>1228</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>1235.099975585938</v>
+      </c>
+      <c r="F1700" t="inlineStr"/>
+      <c r="G1700" t="n">
+        <v>74882</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1700"/>
+  <dimension ref="A1:R1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95385,7 +95385,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95437,7 +95439,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95489,7 +95493,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95541,7 +95547,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95593,7 +95601,269 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>1215</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>1175.099975585938</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>1218.199951171875</v>
+      </c>
+      <c r="F1701" t="inlineStr"/>
+      <c r="G1701" t="n">
+        <v>67251</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>1220.150024414062</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>1141.449951171875</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>1203.199951171875</v>
+      </c>
+      <c r="F1702" t="inlineStr"/>
+      <c r="G1702" t="n">
+        <v>179869</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>1204.949951171875</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>1251</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>1201.949951171875</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>1226.349975585938</v>
+      </c>
+      <c r="F1703" t="inlineStr"/>
+      <c r="G1703" t="n">
+        <v>107293</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>1226.75</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>1254.349975585938</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>1226.400024414062</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>1240.800048828125</v>
+      </c>
+      <c r="F1704" t="inlineStr"/>
+      <c r="G1704" t="n">
+        <v>35144</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>1247.199951171875</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>1235.099975585938</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>1281.900024414062</v>
+      </c>
+      <c r="F1705" t="inlineStr"/>
+      <c r="G1705" t="n">
+        <v>56273</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1705"/>
+  <dimension ref="A1:R1710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95655,7 +95655,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95707,7 +95709,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95759,7 +95763,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95811,7 +95817,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95863,7 +95871,269 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>1279.150024414062</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>1280.5</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>1203</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>1219.349975585938</v>
+      </c>
+      <c r="F1706" t="inlineStr"/>
+      <c r="G1706" t="n">
+        <v>89760</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>1231.550048828125</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>1242.349975585938</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>1205.349975585938</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>1211.599975585938</v>
+      </c>
+      <c r="F1707" t="inlineStr"/>
+      <c r="G1707" t="n">
+        <v>46396</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>1223.5</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>1255</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>1205.800048828125</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>1247.949951171875</v>
+      </c>
+      <c r="F1708" t="inlineStr"/>
+      <c r="G1708" t="n">
+        <v>55362</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>1252.349975585938</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>1295.75</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>1272.650024414062</v>
+      </c>
+      <c r="F1709" t="inlineStr"/>
+      <c r="G1709" t="n">
+        <v>161413</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>1279.900024414062</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>1310.849975585938</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>1250.099975585938</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>1273.050048828125</v>
+      </c>
+      <c r="F1710" t="inlineStr"/>
+      <c r="G1710" t="n">
+        <v>154840</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95701,7 +95701,7 @@
         <v>5</v>
       </c>
       <c r="O1702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1702" t="n">
         <v>0</v>
@@ -95925,7 +95925,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -95977,7 +95979,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96029,7 +96033,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96081,7 +96087,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96133,7 +96141,269 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>1290</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1222.099975585938</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>1234.849975585938</v>
+      </c>
+      <c r="F1711" t="inlineStr"/>
+      <c r="G1711" t="n">
+        <v>59794</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>1239.800048828125</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>1241.300048828125</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>1169.949951171875</v>
+      </c>
+      <c r="F1712" t="inlineStr"/>
+      <c r="G1712" t="n">
+        <v>78498</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1110.25</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>1172.050048828125</v>
+      </c>
+      <c r="F1713" t="inlineStr"/>
+      <c r="G1713" t="n">
+        <v>163858</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>1205</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>1140.150024414062</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>1149.800048828125</v>
+      </c>
+      <c r="F1714" t="inlineStr"/>
+      <c r="G1714" t="n">
+        <v>68807</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>1159.800048828125</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>1204.199951171875</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>1143.050048828125</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>1154.449951171875</v>
+      </c>
+      <c r="F1715" t="inlineStr"/>
+      <c r="G1715" t="n">
+        <v>190303</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1715"/>
+  <dimension ref="A1:R1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96133,7 +96133,7 @@
         <v>6</v>
       </c>
       <c r="O1710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96195,7 +96195,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96247,7 +96249,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96299,7 +96303,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96351,7 +96357,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96403,7 +96411,269 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>1148.050048828125</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="F1716" t="inlineStr"/>
+      <c r="G1716" t="n">
+        <v>103013</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>1118.550048828125</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>1124.949951171875</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>1042.099975585938</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>1053.25</v>
+      </c>
+      <c r="F1717" t="inlineStr"/>
+      <c r="G1717" t="n">
+        <v>145528</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>1116.75</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>1030.199951171875</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>1078.050048828125</v>
+      </c>
+      <c r="F1718" t="inlineStr"/>
+      <c r="G1718" t="n">
+        <v>136670</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>1075</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>1139.449951171875</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1062.75</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>1130.25</v>
+      </c>
+      <c r="F1719" t="inlineStr"/>
+      <c r="G1719" t="n">
+        <v>76314</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>1136.199951171875</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>1151.800048828125</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>1100.050048828125</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>1109.050048828125</v>
+      </c>
+      <c r="F1720" t="inlineStr"/>
+      <c r="G1720" t="n">
+        <v>80840</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1720"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95877,23 +95877,23 @@
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1706" t="n">
-        <v>1279.150024414062</v>
+        <v>1309.949951171875</v>
       </c>
       <c r="C1706" t="n">
-        <v>1280.5</v>
+        <v>1334.949951171875</v>
       </c>
       <c r="D1706" t="n">
-        <v>1203</v>
+        <v>1271</v>
       </c>
       <c r="E1706" t="n">
-        <v>1219.349975585938</v>
+        <v>1288.349975585938</v>
       </c>
       <c r="F1706" t="inlineStr"/>
       <c r="G1706" t="n">
-        <v>89760</v>
+        <v>78778</v>
       </c>
       <c r="H1706" t="n">
         <v>2025</v>
@@ -95902,7 +95902,7 @@
         <v>2</v>
       </c>
       <c r="J1706" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1706" t="n">
         <v>0</v>
@@ -95914,7 +95914,7 @@
         <v>0</v>
       </c>
       <c r="N1706" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1706" t="n">
         <v>0</v>
@@ -95925,29 +95925,27 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1706" t="inlineStr"/>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1707" t="n">
-        <v>1231.550048828125</v>
+        <v>1279.150024414062</v>
       </c>
       <c r="C1707" t="n">
-        <v>1242.349975585938</v>
+        <v>1280.5</v>
       </c>
       <c r="D1707" t="n">
-        <v>1205.349975585938</v>
+        <v>1203</v>
       </c>
       <c r="E1707" t="n">
-        <v>1211.599975585938</v>
+        <v>1219.349975585938</v>
       </c>
       <c r="F1707" t="inlineStr"/>
       <c r="G1707" t="n">
-        <v>46396</v>
+        <v>89760</v>
       </c>
       <c r="H1707" t="n">
         <v>2025</v>
@@ -95956,7 +95954,7 @@
         <v>2</v>
       </c>
       <c r="J1707" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1707" t="n">
         <v>0</v>
@@ -95985,23 +95983,23 @@
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1708" t="n">
-        <v>1223.5</v>
+        <v>1231.550048828125</v>
       </c>
       <c r="C1708" t="n">
-        <v>1255</v>
+        <v>1242.349975585938</v>
       </c>
       <c r="D1708" t="n">
-        <v>1205.800048828125</v>
+        <v>1205.349975585938</v>
       </c>
       <c r="E1708" t="n">
-        <v>1247.949951171875</v>
+        <v>1211.599975585938</v>
       </c>
       <c r="F1708" t="inlineStr"/>
       <c r="G1708" t="n">
-        <v>55362</v>
+        <v>46396</v>
       </c>
       <c r="H1708" t="n">
         <v>2025</v>
@@ -96010,7 +96008,7 @@
         <v>2</v>
       </c>
       <c r="J1708" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1708" t="n">
         <v>0</v>
@@ -96039,23 +96037,23 @@
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1709" t="n">
-        <v>1252.349975585938</v>
+        <v>1223.5</v>
       </c>
       <c r="C1709" t="n">
-        <v>1295.75</v>
+        <v>1255</v>
       </c>
       <c r="D1709" t="n">
-        <v>1252</v>
+        <v>1205.800048828125</v>
       </c>
       <c r="E1709" t="n">
-        <v>1272.650024414062</v>
+        <v>1247.949951171875</v>
       </c>
       <c r="F1709" t="inlineStr"/>
       <c r="G1709" t="n">
-        <v>161413</v>
+        <v>55362</v>
       </c>
       <c r="H1709" t="n">
         <v>2025</v>
@@ -96064,7 +96062,7 @@
         <v>2</v>
       </c>
       <c r="J1709" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1709" t="n">
         <v>0</v>
@@ -96093,23 +96091,23 @@
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1710" t="n">
-        <v>1279.900024414062</v>
+        <v>1252.349975585938</v>
       </c>
       <c r="C1710" t="n">
-        <v>1310.849975585938</v>
+        <v>1295.75</v>
       </c>
       <c r="D1710" t="n">
-        <v>1250.099975585938</v>
+        <v>1252</v>
       </c>
       <c r="E1710" t="n">
-        <v>1273.050048828125</v>
+        <v>1272.650024414062</v>
       </c>
       <c r="F1710" t="inlineStr"/>
       <c r="G1710" t="n">
-        <v>154840</v>
+        <v>161413</v>
       </c>
       <c r="H1710" t="n">
         <v>2025</v>
@@ -96118,7 +96116,7 @@
         <v>2</v>
       </c>
       <c r="J1710" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1710" t="n">
         <v>0</v>
@@ -96133,7 +96131,7 @@
         <v>6</v>
       </c>
       <c r="O1710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96147,23 +96145,23 @@
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1711" t="n">
-        <v>1280</v>
+        <v>1279.900024414062</v>
       </c>
       <c r="C1711" t="n">
-        <v>1290</v>
+        <v>1310.849975585938</v>
       </c>
       <c r="D1711" t="n">
-        <v>1222.099975585938</v>
+        <v>1250.099975585938</v>
       </c>
       <c r="E1711" t="n">
-        <v>1234.849975585938</v>
+        <v>1273.050048828125</v>
       </c>
       <c r="F1711" t="inlineStr"/>
       <c r="G1711" t="n">
-        <v>59794</v>
+        <v>154840</v>
       </c>
       <c r="H1711" t="n">
         <v>2025</v>
@@ -96172,7 +96170,7 @@
         <v>2</v>
       </c>
       <c r="J1711" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1711" t="n">
         <v>0</v>
@@ -96184,7 +96182,7 @@
         <v>0</v>
       </c>
       <c r="N1711" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1711" t="n">
         <v>0</v>
@@ -96201,23 +96199,23 @@
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1712" t="n">
-        <v>1239.800048828125</v>
+        <v>1280</v>
       </c>
       <c r="C1712" t="n">
-        <v>1241.300048828125</v>
+        <v>1290</v>
       </c>
       <c r="D1712" t="n">
-        <v>1160</v>
+        <v>1222.099975585938</v>
       </c>
       <c r="E1712" t="n">
-        <v>1169.949951171875</v>
+        <v>1234.849975585938</v>
       </c>
       <c r="F1712" t="inlineStr"/>
       <c r="G1712" t="n">
-        <v>78498</v>
+        <v>59794</v>
       </c>
       <c r="H1712" t="n">
         <v>2025</v>
@@ -96226,7 +96224,7 @@
         <v>2</v>
       </c>
       <c r="J1712" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1712" t="n">
         <v>0</v>
@@ -96255,23 +96253,23 @@
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1713" t="n">
-        <v>1199</v>
+        <v>1239.800048828125</v>
       </c>
       <c r="C1713" t="n">
-        <v>1199</v>
+        <v>1241.300048828125</v>
       </c>
       <c r="D1713" t="n">
-        <v>1110.25</v>
+        <v>1160</v>
       </c>
       <c r="E1713" t="n">
-        <v>1172.050048828125</v>
+        <v>1169.949951171875</v>
       </c>
       <c r="F1713" t="inlineStr"/>
       <c r="G1713" t="n">
-        <v>163858</v>
+        <v>78498</v>
       </c>
       <c r="H1713" t="n">
         <v>2025</v>
@@ -96280,7 +96278,7 @@
         <v>2</v>
       </c>
       <c r="J1713" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1713" t="n">
         <v>0</v>
@@ -96309,23 +96307,23 @@
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1714" t="n">
-        <v>1170</v>
+        <v>1199</v>
       </c>
       <c r="C1714" t="n">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="D1714" t="n">
-        <v>1140.150024414062</v>
+        <v>1110.25</v>
       </c>
       <c r="E1714" t="n">
-        <v>1149.800048828125</v>
+        <v>1172.050048828125</v>
       </c>
       <c r="F1714" t="inlineStr"/>
       <c r="G1714" t="n">
-        <v>68807</v>
+        <v>163858</v>
       </c>
       <c r="H1714" t="n">
         <v>2025</v>
@@ -96334,7 +96332,7 @@
         <v>2</v>
       </c>
       <c r="J1714" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1714" t="n">
         <v>0</v>
@@ -96363,23 +96361,23 @@
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1715" t="n">
-        <v>1159.800048828125</v>
+        <v>1170</v>
       </c>
       <c r="C1715" t="n">
-        <v>1204.199951171875</v>
+        <v>1205</v>
       </c>
       <c r="D1715" t="n">
-        <v>1143.050048828125</v>
+        <v>1140.150024414062</v>
       </c>
       <c r="E1715" t="n">
-        <v>1154.449951171875</v>
+        <v>1149.800048828125</v>
       </c>
       <c r="F1715" t="inlineStr"/>
       <c r="G1715" t="n">
-        <v>190303</v>
+        <v>68807</v>
       </c>
       <c r="H1715" t="n">
         <v>2025</v>
@@ -96388,7 +96386,7 @@
         <v>2</v>
       </c>
       <c r="J1715" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1715" t="n">
         <v>0</v>
@@ -96417,23 +96415,23 @@
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1716" t="n">
-        <v>1148.050048828125</v>
+        <v>1159.800048828125</v>
       </c>
       <c r="C1716" t="n">
-        <v>1180</v>
+        <v>1204.199951171875</v>
       </c>
       <c r="D1716" t="n">
-        <v>1110</v>
+        <v>1143.050048828125</v>
       </c>
       <c r="E1716" t="n">
-        <v>1118.550048828125</v>
+        <v>1154.449951171875</v>
       </c>
       <c r="F1716" t="inlineStr"/>
       <c r="G1716" t="n">
-        <v>103013</v>
+        <v>190303</v>
       </c>
       <c r="H1716" t="n">
         <v>2025</v>
@@ -96442,7 +96440,7 @@
         <v>2</v>
       </c>
       <c r="J1716" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1716" t="n">
         <v>0</v>
@@ -96454,7 +96452,7 @@
         <v>0</v>
       </c>
       <c r="N1716" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1716" t="n">
         <v>0</v>
@@ -96465,27 +96463,29 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1717" t="n">
+        <v>1148.050048828125</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E1717" t="n">
         <v>1118.550048828125</v>
-      </c>
-      <c r="C1717" t="n">
-        <v>1124.949951171875</v>
-      </c>
-      <c r="D1717" t="n">
-        <v>1042.099975585938</v>
-      </c>
-      <c r="E1717" t="n">
-        <v>1053.25</v>
       </c>
       <c r="F1717" t="inlineStr"/>
       <c r="G1717" t="n">
-        <v>145528</v>
+        <v>103013</v>
       </c>
       <c r="H1717" t="n">
         <v>2025</v>
@@ -96494,7 +96494,7 @@
         <v>2</v>
       </c>
       <c r="J1717" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1717" t="n">
         <v>0</v>
@@ -96517,27 +96517,29 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1718" t="n">
-        <v>1036</v>
+        <v>1118.550048828125</v>
       </c>
       <c r="C1718" t="n">
-        <v>1116.75</v>
+        <v>1124.949951171875</v>
       </c>
       <c r="D1718" t="n">
-        <v>1030.199951171875</v>
+        <v>1042.099975585938</v>
       </c>
       <c r="E1718" t="n">
-        <v>1078.050048828125</v>
+        <v>1053.25</v>
       </c>
       <c r="F1718" t="inlineStr"/>
       <c r="G1718" t="n">
-        <v>136670</v>
+        <v>145528</v>
       </c>
       <c r="H1718" t="n">
         <v>2025</v>
@@ -96546,7 +96548,7 @@
         <v>2</v>
       </c>
       <c r="J1718" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1718" t="n">
         <v>0</v>
@@ -96569,27 +96571,29 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1719" t="n">
-        <v>1075</v>
+        <v>1036</v>
       </c>
       <c r="C1719" t="n">
-        <v>1139.449951171875</v>
+        <v>1116.75</v>
       </c>
       <c r="D1719" t="n">
-        <v>1062.75</v>
+        <v>1030.199951171875</v>
       </c>
       <c r="E1719" t="n">
-        <v>1130.25</v>
+        <v>1078.050048828125</v>
       </c>
       <c r="F1719" t="inlineStr"/>
       <c r="G1719" t="n">
-        <v>76314</v>
+        <v>136670</v>
       </c>
       <c r="H1719" t="n">
         <v>2025</v>
@@ -96598,7 +96602,7 @@
         <v>2</v>
       </c>
       <c r="J1719" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1719" t="n">
         <v>0</v>
@@ -96621,27 +96625,29 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1720" t="n">
-        <v>1136.199951171875</v>
+        <v>1075</v>
       </c>
       <c r="C1720" t="n">
-        <v>1151.800048828125</v>
+        <v>1139.449951171875</v>
       </c>
       <c r="D1720" t="n">
-        <v>1100.050048828125</v>
+        <v>1062.75</v>
       </c>
       <c r="E1720" t="n">
-        <v>1109.050048828125</v>
+        <v>1130.25</v>
       </c>
       <c r="F1720" t="inlineStr"/>
       <c r="G1720" t="n">
-        <v>80840</v>
+        <v>76314</v>
       </c>
       <c r="H1720" t="n">
         <v>2025</v>
@@ -96650,7 +96656,7 @@
         <v>2</v>
       </c>
       <c r="J1720" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1720" t="n">
         <v>0</v>
@@ -96673,7 +96679,531 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>1136.199951171875</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>1151.800048828125</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>1100.050048828125</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>1109.050048828125</v>
+      </c>
+      <c r="F1721" t="inlineStr"/>
+      <c r="G1721" t="n">
+        <v>80840</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1071.300048828125</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>1080.900024414062</v>
+      </c>
+      <c r="F1722" t="inlineStr"/>
+      <c r="G1722" t="n">
+        <v>53146</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>1095</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>1051.900024414062</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>1056.300048828125</v>
+      </c>
+      <c r="F1723" t="inlineStr"/>
+      <c r="G1723" t="n">
+        <v>50979</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>1058.349975585938</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>1080.099975585938</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>990.5499877929688</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>994.5</v>
+      </c>
+      <c r="F1724" t="inlineStr"/>
+      <c r="G1724" t="n">
+        <v>104414</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>945.4500122070312</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>964.4000244140625</v>
+      </c>
+      <c r="F1725" t="inlineStr"/>
+      <c r="G1725" t="n">
+        <v>177693</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>969.5</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>998.5</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>928.5499877929688</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>986.2999877929688</v>
+      </c>
+      <c r="F1726" t="inlineStr"/>
+      <c r="G1726" t="n">
+        <v>113762</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>978.0999755859375</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>1018.900024414062</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>967.3499755859375</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>1006.650024414062</v>
+      </c>
+      <c r="F1727" t="inlineStr"/>
+      <c r="G1727" t="n">
+        <v>101707</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>1006.049987792969</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>1085</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>974</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>1072.150024414062</v>
+      </c>
+      <c r="F1728" t="inlineStr"/>
+      <c r="G1728" t="n">
+        <v>200513</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>1075.25</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>1095.400024414062</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>1069</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>1072.349975585938</v>
+      </c>
+      <c r="F1729" t="inlineStr"/>
+      <c r="G1729" t="n">
+        <v>70349</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>1072.349975585938</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>1108.800048828125</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>1087.5</v>
+      </c>
+      <c r="F1730" t="inlineStr"/>
+      <c r="G1730" t="n">
+        <v>103224</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95925,7 +95925,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96787,7 +96789,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96839,7 +96843,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -96891,7 +96897,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -96943,7 +96951,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -96987,7 +96997,7 @@
         <v>10</v>
       </c>
       <c r="O1726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1726" t="n">
         <v>0</v>
@@ -96995,7 +97005,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97047,7 +97059,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97099,7 +97113,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97151,7 +97167,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97203,7 +97221,477 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>1087</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>1097.25</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>1031.400024414062</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>1038.949951171875</v>
+      </c>
+      <c r="F1731" t="inlineStr"/>
+      <c r="G1731" t="n">
+        <v>77873</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>1042.650024414062</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>1005.049987792969</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>1032.550048828125</v>
+      </c>
+      <c r="F1732" t="inlineStr"/>
+      <c r="G1732" t="n">
+        <v>57121</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>1034.949951171875</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>1010</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>1011.950012207031</v>
+      </c>
+      <c r="F1733" t="inlineStr"/>
+      <c r="G1733" t="n">
+        <v>63546</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>1038</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>999</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>1002.400024414062</v>
+      </c>
+      <c r="F1734" t="inlineStr"/>
+      <c r="G1734" t="n">
+        <v>69928</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>1007.400024414062</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>1032</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>1002.650024414062</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="F1735" t="inlineStr"/>
+      <c r="G1735" t="n">
+        <v>61808</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="F1736" t="inlineStr"/>
+      <c r="G1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>1042.199951171875</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>1088.25</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>1038.800048828125</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>1065.050048828125</v>
+      </c>
+      <c r="F1737" t="inlineStr"/>
+      <c r="G1737" t="n">
+        <v>89776</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>1070.699951171875</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>1108.099975585938</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>1070.699951171875</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>1075.849975585938</v>
+      </c>
+      <c r="F1738" t="inlineStr"/>
+      <c r="G1738" t="n">
+        <v>127368</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>1082.25</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>1134.800048828125</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>1076.550048828125</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>1127.75</v>
+      </c>
+      <c r="F1739" t="inlineStr"/>
+      <c r="G1739" t="n">
+        <v>130977</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1739"/>
+  <dimension ref="A1:R1748"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97275,7 +97275,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97327,7 +97329,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97379,7 +97383,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97431,7 +97437,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97483,7 +97491,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97535,7 +97545,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97587,7 +97599,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97639,7 +97653,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97691,7 +97707,477 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>1161.349975585938</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>1110.150024414062</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>1121.5</v>
+      </c>
+      <c r="F1740" t="inlineStr"/>
+      <c r="G1740" t="n">
+        <v>161370</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>1130.050048828125</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>1139.949951171875</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>1075.25</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>1082</v>
+      </c>
+      <c r="F1741" t="inlineStr"/>
+      <c r="G1741" t="n">
+        <v>98439</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>1091.5</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>1041.849975585938</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>1048.699951171875</v>
+      </c>
+      <c r="F1742" t="inlineStr"/>
+      <c r="G1742" t="n">
+        <v>129726</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>1041.699951171875</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>1109.25</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>1036.300048828125</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>1087.300048828125</v>
+      </c>
+      <c r="F1743" t="inlineStr"/>
+      <c r="G1743" t="n">
+        <v>260150</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>1112</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>1056.800048828125</v>
+      </c>
+      <c r="F1744" t="inlineStr"/>
+      <c r="G1744" t="n">
+        <v>104250</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>1057.199951171875</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>1124.099975585938</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>1047.25</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>1093.099975585938</v>
+      </c>
+      <c r="F1745" t="inlineStr"/>
+      <c r="G1745" t="n">
+        <v>122576</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>1093.099975585938</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>1062</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>1083.75</v>
+      </c>
+      <c r="F1746" t="inlineStr"/>
+      <c r="G1746" t="n">
+        <v>54189</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>1106</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>1049</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>1103</v>
+      </c>
+      <c r="F1747" t="inlineStr"/>
+      <c r="G1747" t="n">
+        <v>72052</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>1092.099975585938</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>1102.849975585938</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>1037.099975585938</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>1045.599975585938</v>
+      </c>
+      <c r="F1748" t="inlineStr"/>
+      <c r="G1748" t="n">
+        <v>117531</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1748"/>
+  <dimension ref="A1:R1752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97753,7 +97753,7 @@
         <v>13</v>
       </c>
       <c r="O1740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1740" t="n">
         <v>0</v>
@@ -97761,7 +97761,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97813,7 +97815,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -97865,7 +97869,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -97917,7 +97923,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -97969,7 +97977,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98021,7 +98031,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98073,7 +98085,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98125,7 +98139,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98177,7 +98193,217 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>966.7000122070312</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>1048.099975585938</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>938.7000122070312</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>1013.049987792969</v>
+      </c>
+      <c r="F1749" t="inlineStr"/>
+      <c r="G1749" t="n">
+        <v>90607</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>1050.449951171875</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>1013.75</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>1028.199951171875</v>
+      </c>
+      <c r="F1750" t="inlineStr"/>
+      <c r="G1750" t="n">
+        <v>44827</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>1024.050048828125</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>1026.949951171875</v>
+      </c>
+      <c r="F1751" t="inlineStr"/>
+      <c r="G1751" t="n">
+        <v>30650</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>1044.349975585938</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>1028.349975585938</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>1052.849975585938</v>
+      </c>
+      <c r="F1752" t="inlineStr"/>
+      <c r="G1752" t="n">
+        <v>63772</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1752"/>
+  <dimension ref="A1:R1755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98247,7 +98247,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98299,7 +98301,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98351,7 +98355,9 @@
       <c r="Q1751" t="n">
         <v>2</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98403,7 +98409,165 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>1086.5</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>1064.900024414062</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>1084.900024414062</v>
+      </c>
+      <c r="F1753" t="inlineStr"/>
+      <c r="G1753" t="n">
+        <v>55943</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>1095.400024414062</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>1122.599975585938</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>1084.300048828125</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>1117.800048828125</v>
+      </c>
+      <c r="F1754" t="inlineStr"/>
+      <c r="G1754" t="n">
+        <v>93690</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>1117</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>1129</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>1122</v>
+      </c>
+      <c r="F1755" t="inlineStr"/>
+      <c r="G1755" t="n">
+        <v>51583</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1755"/>
+  <dimension ref="A1:R1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98239,7 +98239,7 @@
         <v>15</v>
       </c>
       <c r="O1749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1749" t="n">
         <v>0</v>
@@ -98463,7 +98463,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98515,7 +98517,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98567,7 +98571,477 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>1123</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>1116.800048828125</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>1138.800048828125</v>
+      </c>
+      <c r="F1756" t="inlineStr"/>
+      <c r="G1756" t="n">
+        <v>69938</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>1175</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>1198</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1133.5</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>1143.400024414062</v>
+      </c>
+      <c r="F1757" t="inlineStr"/>
+      <c r="G1757" t="n">
+        <v>243964</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>1153.300048828125</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>1167</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>1115.400024414062</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>1124.400024414062</v>
+      </c>
+      <c r="F1758" t="inlineStr"/>
+      <c r="G1758" t="n">
+        <v>94395</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>1131.5</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>1135.900024414062</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1112.099975585938</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>1126.900024414062</v>
+      </c>
+      <c r="F1759" t="inlineStr"/>
+      <c r="G1759" t="n">
+        <v>61407</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>1139.5</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>1139.5</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>1075.099975585938</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>1086</v>
+      </c>
+      <c r="F1760" t="inlineStr"/>
+      <c r="G1760" t="n">
+        <v>74997</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>1084.099975585938</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>1098.5</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>1064</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>1085.599975585938</v>
+      </c>
+      <c r="F1761" t="inlineStr"/>
+      <c r="G1761" t="n">
+        <v>42157</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>1145</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>1088.300048828125</v>
+      </c>
+      <c r="F1762" t="inlineStr"/>
+      <c r="G1762" t="n">
+        <v>98194</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>1088.300048828125</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>1104.300048828125</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>1061.099975585938</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>1074</v>
+      </c>
+      <c r="F1763" t="inlineStr"/>
+      <c r="G1763" t="n">
+        <v>78383</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>1128.099975585938</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>1070</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>1123.300048828125</v>
+      </c>
+      <c r="F1764" t="inlineStr"/>
+      <c r="G1764" t="n">
+        <v>126966</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/HGINFRA.NS.xlsx
+++ b/stock_historical_data/1d/HGINFRA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1764"/>
+  <dimension ref="A1:R1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9315,7 +9315,7 @@
         <v>2</v>
       </c>
       <c r="Q158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R158" t="n">
         <v>2</v>
@@ -98625,7 +98625,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98669,7 +98671,7 @@
         <v>17</v>
       </c>
       <c r="O1757" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1757" t="n">
         <v>0</v>
@@ -98677,7 +98679,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98729,7 +98733,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98781,7 +98787,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -98833,7 +98841,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -98885,7 +98895,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -98937,7 +98949,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -98989,7 +99003,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99041,7 +99057,529 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>1118</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>1153</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>1129.599975585938</v>
+      </c>
+      <c r="F1765" t="inlineStr"/>
+      <c r="G1765" t="n">
+        <v>47801</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>1119</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>1133.300048828125</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>1086.900024414062</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>1095.699951171875</v>
+      </c>
+      <c r="F1766" t="inlineStr"/>
+      <c r="G1766" t="n">
+        <v>71478</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>1070.199951171875</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>1107.800048828125</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>1070.199951171875</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>1099.599975585938</v>
+      </c>
+      <c r="F1767" t="inlineStr"/>
+      <c r="G1767" t="n">
+        <v>60370</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>1099.599975585938</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>1125</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>1075.099975585938</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>1080.199951171875</v>
+      </c>
+      <c r="F1768" t="inlineStr"/>
+      <c r="G1768" t="n">
+        <v>47682</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>1077.400024414062</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>1041</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>1072.099975585938</v>
+      </c>
+      <c r="F1769" t="inlineStr"/>
+      <c r="G1769" t="n">
+        <v>54261</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>1113</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>1110.300048828125</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>1131.300048828125</v>
+      </c>
+      <c r="F1770" t="inlineStr"/>
+      <c r="G1770" t="n">
+        <v>73818</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>1131.900024414062</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>1125.699951171875</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>1142.599975585938</v>
+      </c>
+      <c r="F1771" t="inlineStr"/>
+      <c r="G1771" t="n">
+        <v>62545</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>1144</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>1162.300048828125</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>1141</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>1149.699951171875</v>
+      </c>
+      <c r="F1772" t="inlineStr"/>
+      <c r="G1772" t="n">
+        <v>59617</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>1196</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>1148.800048828125</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>1185.699951171875</v>
+      </c>
+      <c r="F1773" t="inlineStr"/>
+      <c r="G1773" t="n">
+        <v>96601</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>1192.5</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>1235</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>1180.599975585938</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>1227.300048828125</v>
+      </c>
+      <c r="F1774" t="inlineStr"/>
+      <c r="G1774" t="n">
+        <v>166073</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
